--- a/RUTA DE IMAGNES.xlsx
+++ b/RUTA DE IMAGNES.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="pulseras oro" sheetId="9" r:id="rId2"/>
-    <sheet name="pulseras acero" sheetId="8" r:id="rId3"/>
-    <sheet name="dijes de plata" sheetId="7" r:id="rId4"/>
-    <sheet name="dijes oro" sheetId="6" r:id="rId5"/>
-    <sheet name="dijes acero" sheetId="5" r:id="rId6"/>
-    <sheet name="anillos oro" sheetId="4" r:id="rId7"/>
-    <sheet name="anillos plata" sheetId="2" r:id="rId8"/>
-    <sheet name="anillos acero" sheetId="3" r:id="rId9"/>
+    <sheet name="pulsera plata" sheetId="10" r:id="rId2"/>
+    <sheet name="pulseras oro" sheetId="9" r:id="rId3"/>
+    <sheet name="pulseras acero" sheetId="8" r:id="rId4"/>
+    <sheet name="dijes de plata" sheetId="7" r:id="rId5"/>
+    <sheet name="dijes oro" sheetId="6" r:id="rId6"/>
+    <sheet name="dijes acero" sheetId="5" r:id="rId7"/>
+    <sheet name="anillos oro" sheetId="4" r:id="rId8"/>
+    <sheet name="anillos plata" sheetId="2" r:id="rId9"/>
+    <sheet name="anillos acero" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
   <si>
     <t>./assets/img/pulseras/anillo</t>
   </si>
@@ -196,9 +197,6 @@
     <t>trebol</t>
   </si>
   <si>
-    <t>./assets/img/dijes/acero-</t>
-  </si>
-  <si>
     <t>./assets/img/dijes/oro-</t>
   </si>
   <si>
@@ -277,10 +275,64 @@
     <t>./assets/img/pulseras/oro-</t>
   </si>
   <si>
-    <t>pulsera-oro</t>
-  </si>
-  <si>
-    <t>pulsera-oro-18k</t>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>hueca-soga-plana</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata</t>
+  </si>
+  <si>
+    <t>cierre-marinero</t>
+  </si>
+  <si>
+    <t>clapton</t>
+  </si>
+  <si>
+    <t>coreana</t>
+  </si>
+  <si>
+    <t>fijago-3x1</t>
+  </si>
+  <si>
+    <t>grume</t>
+  </si>
+  <si>
+    <t>malla</t>
+  </si>
+  <si>
+    <t>soga</t>
+  </si>
+  <si>
+    <t>soga-soga</t>
+  </si>
+  <si>
+    <t>tourbillon</t>
+  </si>
+  <si>
+    <t>veneciana</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-con-esmeralda.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/oro-pulsera-oro-</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-</t>
   </si>
 </sst>
 </file>
@@ -608,7 +660,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,13 +726,160 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,228 +888,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="str">
+        <f>A3&amp;E3&amp;G3</f>
+        <v>./assets/img/pulseras/plata/pulsera-plata-cierre-marinero.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I12" si="0">A4&amp;E4&amp;G4</f>
+        <v>./assets/img/pulseras/plata/pulsera-plata-clapton.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-coreana.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-fijago-3x1.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-grume.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-malla.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-soga.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-soga-soga.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-tourbillon.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/plata/pulsera-plata-veneciana.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <f>A3&amp;D3&amp;F3</f>
+        <v>./assets/img/pulseras/oro-pulsera-oro-.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H6" si="0">A4&amp;D4&amp;F4</f>
+        <v>./assets/img/pulseras/oro-pulsera-oro-18k.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/oro-pulsera-oro-identificacion.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/oro-pulsera-oro-hueca-soga-plana.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -919,429 +1394,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="str">
+        <f>A3&amp;E3&amp;G3</f>
+        <v>./assets/img/pulseras/acero/pulsera-acero-con-dijes.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
-        <f>A3&amp;D3&amp;F3</f>
-        <v>./assets/img/pulseras/acero-con-dijes.jpg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I9" si="0">A4&amp;E4&amp;G4</f>
+        <v>./assets/img/pulseras/acero/pulsera-acero-con-flor.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H9" si="0">A4&amp;D4&amp;F4</f>
-        <v>./assets/img/pulseras/acero-con-flor.jpg</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/acero/pulsera-acero-esclava-esc.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/pulseras/acero-esclava-esc.jpg</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/acero/pulsera-acero-esclava .jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/pulseras/acero-esclava .jpg</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/acero/pulsera-acero-esclava-redonda.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/pulseras/acero-esclava-redonda.jpg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/pulseras/acero-identificacion.jpg</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/acero/pulsera-acero-identificacion.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/pulseras/acero-infinito.jpg</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/pulseras/acero/pulsera-acero-infinito.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
-        <f>A3&amp;D3&amp;F3</f>
-        <v>./assets/img/dijes/plata-ala.jpg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H10" si="0">A4&amp;D4&amp;F4</f>
-        <v>./assets/img/dijes/plata-arbol.jpg</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-plata.jpg</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-buho.jpg</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-corazon.jpg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-cruz.jpg</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-infinito.jpg</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/plata-margarita.jpg</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1351,198 +1661,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I7" sqref="I7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
-        <f>A3&amp;D3&amp;F3</f>
-        <v>./assets/img/dijes/oro-atrapa-sueño.jpg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="str">
+        <f>A3&amp;E3&amp;G3</f>
+        <v>./assets/img/dijes/plata/dije-plata-ala.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H13" si="0">A4&amp;D4&amp;F4</f>
-        <v>./assets/img/dijes/oro-boca.jpg</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I10" si="0">A4&amp;E4&amp;G4</f>
+        <v>./assets/img/dijes/plata/dije-plata-arbol.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-con-esmeralda.jpg</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-plata.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-buho.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-corazon.jpg</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-corazones.jpg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-corazon.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-daga.jpg</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-cruz.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-delfin.jpg</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-infinito.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-dinero.jpg</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/plata/dije-plata-margarita.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-esculapio.jpg</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-mariposa.jpg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>./assets/img/dijes/oro-osito.jpg</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1552,10 +1826,210 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <f>A3&amp;D3&amp;F3</f>
+        <v>./assets/img/dijes/oro/dije-oro-atrapa-sueño.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H13" si="0">A4&amp;D4&amp;F4</f>
+        <v>./assets/img/dijes/oro/dije-oro-boca.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-con-esmeralda.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-corazon.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-corazones.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-delfin.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-dinero.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-esculapio.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-mariposa.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>./assets/img/dijes/oro/dije-oro-osito.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +2041,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -1577,12 +2051,12 @@
       </c>
       <c r="H3" t="str">
         <f>A3&amp;D3&amp;F3</f>
-        <v>./assets/img/dijes/acero-arbol.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-arbol.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1592,12 +2066,12 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H10" si="0">A4&amp;D4&amp;F4</f>
-        <v>./assets/img/dijes/acero-corazon.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-corazon.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -1607,12 +2081,12 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-corona.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-corona.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1622,12 +2096,12 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-mano.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-mano.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -1637,12 +2111,12 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-manzanitas.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-manzanitas.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -1652,12 +2126,12 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-mariposa.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-mariposa.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1667,12 +2141,12 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-planeta.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-planeta.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1682,47 +2156,47 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>./assets/img/dijes/acero-trebol.jpg</v>
+        <v>./assets/img/dijes/acero/dije-acero-trebol.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1730,12 +2204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,12 +2433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,151 +2517,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>